--- a/health-backend/src/main/resources/file/orderSetting_template.xlsx
+++ b/health-backend/src/main/resources/file/orderSetting_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\health\health-backend\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D545A4-616D-4824-9793-68704404F906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02086D8B-DC75-4957-9480-EA0D3D7C66AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,13 +30,13 @@
     <t>序号</t>
   </si>
   <si>
-    <t>时间</t>
-  </si>
-  <si>
     <t>可预约人数</t>
   </si>
   <si>
     <t>已预约人数</t>
+  </si>
+  <si>
+    <t>日期</t>
   </si>
 </sst>
 </file>
@@ -72,8 +72,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,26 +359,32 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="11.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>